--- a/data/trans_orig/EDAD-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EDAD-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>20,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>20,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>19,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>20,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>20,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>20,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>19,98</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>20,4</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>20,56</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>20,28</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>19,95</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>20,42</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,39; 20,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 2,92</t>
+          <t>19,69; 20,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,6; 20,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 2,57</t>
+          <t>20,02; 20,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,24; 20,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,75</t>
+          <t>19,91; 20,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,68; 20,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,24</t>
+          <t>19,96; 20,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,38; 20,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 2,72</t>
+          <t>19,92; 20,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,74; 20,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 2,34</t>
+          <t>20,12; 20,72</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>29,26</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>29,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>29,71</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>29,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>29,75</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>30,57</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>29,51</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>29,53</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>29,49</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>30,08</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>29,61</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>29,57</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,91; 29,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,6; 7,27</t>
+          <t>28,95; 29,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,37; 30,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,3</t>
+          <t>29,22; 29,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,42; 30,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,54</t>
+          <t>29,47; 32,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,16; 29,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 7,25</t>
+          <t>29,17; 29,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,27; 29,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,3</t>
+          <t>29,43; 31,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,37; 29,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,97; 7,23</t>
+          <t>29,3; 29,82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>40,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,29</t>
+          <t>39,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>39,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,8</t>
+          <t>39,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>39,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,07</t>
+          <t>39,64</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>39,86</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,5</t>
+          <t>39,42</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>39,99</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,18</t>
+          <t>39,71</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>39,83</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,65</t>
+          <t>39,5</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,0; 15,0</t>
+          <t>39,82; 40,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,99; 12,59</t>
+          <t>39,41; 40,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,5; 40,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,6; 12,97</t>
+          <t>39,2; 39,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,0; 15,0</t>
+          <t>39,66; 40,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,74; 12,43</t>
+          <t>39,34; 39,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,59; 40,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,32; 12,69</t>
+          <t>39,04; 39,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,0; 15,0</t>
+          <t>39,8; 40,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,95; 12,42</t>
+          <t>39,48; 39,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,59; 40,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,52; 12,78</t>
+          <t>39,23; 39,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,87</t>
+          <t>49,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,45</t>
+          <t>49,93</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,23</t>
+          <t>49,1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>49,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,97</t>
+          <t>49,74</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,4</t>
+          <t>49,25</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,25</t>
+          <t>49,43</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,92</t>
+          <t>49,24</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,92</t>
+          <t>49,75</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20,42</t>
+          <t>49,66</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,24</t>
+          <t>49,26</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,96</t>
+          <t>49,27</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,51; 20,17</t>
+          <t>49,55; 49,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,02; 20,92</t>
+          <t>49,13; 50,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,84; 20,66</t>
+          <t>48,86; 49,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,75; 20,23</t>
+          <t>48,93; 49,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,67; 20,27</t>
+          <t>49,52; 49,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,98; 20,87</t>
+          <t>49,04; 49,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,9; 20,64</t>
+          <t>49,16; 49,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,7; 20,16</t>
+          <t>48,82; 49,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,7; 20,14</t>
+          <t>49,59; 49,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,11; 20,75</t>
+          <t>49,2; 50,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,96; 20,48</t>
+          <t>49,07; 49,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,78; 20,11</t>
+          <t>49,0; 49,55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>29,68</t>
+          <t>59,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>29,61</t>
+          <t>59,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29,74</t>
+          <t>59,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29,3</t>
+          <t>59,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>29,61</t>
+          <t>59,56</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,53</t>
+          <t>58,98</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>29,7</t>
+          <t>59,43</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,75</t>
+          <t>59,37</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,64</t>
+          <t>59,59</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>29,57</t>
+          <t>59,1</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>29,72</t>
+          <t>59,29</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>29,52</t>
+          <t>59,31</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,35; 30,04</t>
+          <t>59,4; 59,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,27; 29,98</t>
+          <t>58,89; 59,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,4; 30,09</t>
+          <t>58,87; 59,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,02; 29,56</t>
+          <t>58,82; 59,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,23; 29,92</t>
+          <t>59,35; 59,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,18; 29,94</t>
+          <t>58,74; 59,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,38; 30,12</t>
+          <t>59,16; 59,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,49; 30,04</t>
+          <t>59,0; 59,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,4; 29,9</t>
+          <t>59,44; 59,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,3; 29,84</t>
+          <t>58,91; 59,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,49; 30,02</t>
+          <t>59,09; 59,48</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,31; 29,71</t>
+          <t>59,03; 59,61</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>39,79</t>
+          <t>69,27</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>39,59</t>
+          <t>69,36</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>39,93</t>
+          <t>69,47</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>40,08</t>
+          <t>69,65</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>39,88</t>
+          <t>69,43</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,42</t>
+          <t>68,21</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>39,78</t>
+          <t>69,28</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>69,36</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>39,84</t>
+          <t>69,35</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>39,5</t>
+          <t>68,57</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>39,85</t>
+          <t>69,38</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>40,04</t>
+          <t>69,48</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,51; 40,08</t>
+          <t>69,03; 69,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,15; 39,95</t>
+          <t>68,99; 69,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,68; 40,18</t>
+          <t>69,21; 69,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>39,85; 40,3</t>
+          <t>69,12; 70,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>39,6; 40,18</t>
+          <t>69,21; 69,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,06; 39,78</t>
+          <t>67,41; 69,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,56; 40,08</t>
+          <t>69,0; 69,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,79; 40,24</t>
+          <t>68,84; 69,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>39,62; 40,04</t>
+          <t>69,17; 69,51</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>39,23; 39,79</t>
+          <t>67,7; 69,33</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>39,69; 40,06</t>
+          <t>69,2; 69,57</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>39,87; 40,2</t>
+          <t>69,13; 69,81</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>49,21</t>
+          <t>81,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>49,3</t>
+          <t>81,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>49,49</t>
+          <t>81,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>49,68</t>
+          <t>81,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>49,38</t>
+          <t>82,58</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>49,24</t>
+          <t>81,85</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>49,25</t>
+          <t>82,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>49,75</t>
+          <t>83,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>49,29</t>
+          <t>81,93</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>49,27</t>
+          <t>81,53</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>49,37</t>
+          <t>81,88</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>49,71</t>
+          <t>82,52</t>
         </is>
       </c>
     </row>
@@ -1564,69 +1564,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>48,94; 49,45</t>
+          <t>80,6; 81,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>48,95; 49,68</t>
+          <t>80,45; 81,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49,23; 49,83</t>
+          <t>81,04; 81,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>49,48; 49,86</t>
+          <t>80,61; 82,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>49,12; 49,63</t>
+          <t>82,18; 82,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,8; 49,63</t>
+          <t>81,35; 82,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>49,07; 49,42</t>
+          <t>81,7; 82,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>49,55; 49,93</t>
+          <t>82,35; 84,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>49,12; 49,48</t>
+          <t>81,63; 82,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>48,98; 49,53</t>
+          <t>81,12; 81,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>49,22; 49,58</t>
+          <t>81,53; 82,26</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>49,57; 49,85</t>
+          <t>81,87; 83,2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>59,11</t>
+          <t>52,88</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>59,25</t>
+          <t>48,53</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>59,23</t>
+          <t>49,14</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>59,62</t>
+          <t>47,75</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>59,43</t>
+          <t>55,06</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>59,37</t>
+          <t>51,51</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>59,14</t>
+          <t>50,47</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>59,58</t>
+          <t>50,87</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>59,28</t>
+          <t>54,01</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>59,31</t>
+          <t>50,07</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>59,19</t>
+          <t>49,83</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>59,6</t>
+          <t>49,4</t>
         </is>
       </c>
     </row>
@@ -1704,507 +1704,84 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>58,81; 59,39</t>
+          <t>52,2; 53,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>58,81; 59,67</t>
+          <t>47,41; 49,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>59,01; 59,45</t>
+          <t>48,45; 49,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>59,42; 59,84</t>
+          <t>46,63; 48,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>59,16; 59,71</t>
+          <t>54,46; 55,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>58,97; 59,75</t>
+          <t>49,54; 55,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>58,95; 59,32</t>
+          <t>49,7; 51,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>59,4; 59,76</t>
+          <t>49,73; 51,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>59,08; 59,47</t>
+          <t>53,56; 54,43</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>59,02; 59,61</t>
+          <t>48,92; 52,76</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>59,05; 59,34</t>
+          <t>49,32; 50,3</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>59,47; 59,74</t>
+          <t>48,63; 50,25</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>69,58</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>69,65</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>69,31</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>69,22</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>69,37</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>69,36</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>68,75</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>69,43</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>69,48</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>69,48</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>68,99</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>69,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>69,35; 69,8</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>69,16; 70,21</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>69,07; 69,54</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>69,0; 69,43</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>69,12; 69,62</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>68,89; 69,83</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>67,93; 69,26</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>69,21; 69,63</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>69,3; 69,65</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>69,13; 69,8</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>68,31; 69,3</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>69,18; 69,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>81,41</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>81,45</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>81,58</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>81,12</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>81,99</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>83,16</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>82,23</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>82,52</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>81,72</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>82,52</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>81,98</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>81,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>81,01; 81,89</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>80,55; 82,32</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>81,1; 82,11</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>80,76; 81,54</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>81,55; 82,47</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>82,28; 84,15</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>81,81; 82,77</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>82,18; 82,91</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>81,4; 82,06</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>81,86; 83,21</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>81,67; 82,33</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>81,68; 82,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>53,56</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>42,39</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>49,07</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>46,74</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>53,51</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>45,59</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>50,95</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>49,26</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>53,53</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>44,06</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>50,07</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>48,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>52,83; 54,27</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>41,14; 43,55</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>48,28; 49,76</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>46,13; 47,39</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>52,69; 54,22</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>44,48; 46,94</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>50,17; 52,54</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>48,63; 49,9</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>53,02; 54,06</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>43,27; 44,91</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>49,55; 50,99</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>47,59; 48,45</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_orig/EDAD-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EDAD-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad media en años</t>
+          <t>Edad media en años (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/EDAD-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EDAD-Edad-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,66</t>
+          <t>20,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,45</t>
+          <t>20,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,56</t>
+          <t>20,57</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,39; 20,89</t>
+          <t>20,44; 20,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,69; 20,72</t>
+          <t>19,74; 20,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,02; 20,87</t>
+          <t>20,03; 20,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,24; 20,73</t>
+          <t>20,18; 20,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,91; 20,78</t>
+          <t>19,88; 20,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,96; 20,79</t>
+          <t>19,95; 20,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,38; 20,72</t>
+          <t>20,39; 20,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,92; 20,61</t>
+          <t>19,94; 20,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,12; 20,72</t>
+          <t>20,1; 20,73</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,26</t>
+          <t>29,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,75</t>
+          <t>29,54</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,49</t>
+          <t>29,41</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,91; 29,57</t>
+          <t>28,93; 29,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,95; 29,84</t>
+          <t>28,97; 29,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,22; 29,96</t>
+          <t>29,24; 29,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,42; 30,02</t>
+          <t>29,23; 29,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,47; 32,15</t>
+          <t>29,46; 32,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,17; 29,91</t>
+          <t>29,18; 29,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,27; 29,72</t>
+          <t>29,19; 29,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,43; 31,47</t>
+          <t>29,41; 31,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,3; 29,82</t>
+          <t>29,32; 29,86</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>40,06</t>
+          <t>40,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,92</t>
+          <t>40,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>39,99</t>
+          <t>40,04</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,82; 40,33</t>
+          <t>39,79; 40,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,41; 40,14</t>
+          <t>39,44; 40,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,2; 39,97</t>
+          <t>39,2; 39,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,66; 40,16</t>
+          <t>39,82; 40,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,34; 39,89</t>
+          <t>39,37; 39,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,04; 39,76</t>
+          <t>39,03; 39,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,8; 40,16</t>
+          <t>39,87; 40,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,48; 39,93</t>
+          <t>39,49; 39,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>39,23; 39,76</t>
+          <t>39,24; 39,74</t>
         </is>
       </c>
     </row>
@@ -1076,29 +1076,29 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>49,66</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>49,93</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49,1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>49,3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>49,75</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>49,93</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>49,1</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>49,3</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>49,74</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>49,25</t>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>49,75</t>
+          <t>49,71</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>49,55; 49,98</t>
+          <t>49,47; 49,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,13; 50,62</t>
+          <t>49,17; 50,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,93; 49,67</t>
+          <t>48,94; 49,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,52; 49,95</t>
+          <t>49,53; 49,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,04; 49,48</t>
+          <t>49,05; 49,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,82; 49,63</t>
+          <t>48,85; 49,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,59; 49,9</t>
+          <t>49,55; 49,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>49,2; 50,34</t>
+          <t>49,17; 50,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,0; 49,55</t>
+          <t>48,98; 49,56</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>59,63</t>
+          <t>59,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>59,56</t>
+          <t>59,51</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>59,59</t>
+          <t>59,54</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>59,4; 59,87</t>
+          <t>59,35; 59,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>58,89; 59,49</t>
+          <t>58,92; 59,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>58,82; 59,7</t>
+          <t>58,79; 59,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,35; 59,76</t>
+          <t>59,3; 59,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,74; 59,22</t>
+          <t>58,75; 59,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,0; 59,78</t>
+          <t>58,96; 59,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>59,44; 59,76</t>
+          <t>59,38; 59,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>58,91; 59,29</t>
+          <t>58,92; 59,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>59,03; 59,61</t>
+          <t>59,01; 59,6</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>69,27</t>
+          <t>69,18</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,43</t>
+          <t>69,48</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>69,35</t>
+          <t>69,34</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>69,03; 69,52</t>
+          <t>68,91; 69,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>68,99; 69,67</t>
+          <t>69,03; 69,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>69,12; 70,18</t>
+          <t>69,09; 70,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,21; 69,66</t>
+          <t>69,24; 69,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,41; 69,28</t>
+          <t>67,32; 69,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>68,84; 69,81</t>
+          <t>68,83; 69,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>69,17; 69,51</t>
+          <t>69,19; 69,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>67,7; 69,33</t>
+          <t>67,62; 69,33</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>69,13; 69,81</t>
+          <t>69,09; 69,79</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>81,03</t>
+          <t>81,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>82,58</t>
+          <t>82,9</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>81,93</t>
+          <t>82,16</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>80,6; 81,57</t>
+          <t>80,61; 81,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>80,45; 81,74</t>
+          <t>80,41; 81,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>80,61; 82,39</t>
+          <t>80,62; 82,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>82,18; 82,99</t>
+          <t>82,45; 83,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>81,35; 82,42</t>
+          <t>81,31; 82,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>82,35; 84,14</t>
+          <t>82,33; 84,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>81,63; 82,27</t>
+          <t>81,87; 82,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>81,12; 81,98</t>
+          <t>81,12; 82,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>81,87; 83,2</t>
+          <t>81,91; 83,23</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>52,88</t>
+          <t>51,51</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>55,06</t>
+          <t>54,41</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>54,01</t>
+          <t>53,03</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>52,2; 53,44</t>
+          <t>50,88; 52,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>47,41; 49,67</t>
+          <t>47,46; 49,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>46,63; 48,75</t>
+          <t>46,72; 48,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,46; 55,61</t>
+          <t>53,81; 55,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>49,54; 55,6</t>
+          <t>49,47; 55,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49,73; 51,86</t>
+          <t>49,81; 52,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>53,56; 54,43</t>
+          <t>52,59; 53,46</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>48,92; 52,76</t>
+          <t>48,88; 52,5</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>48,63; 50,25</t>
+          <t>48,62; 50,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EDAD-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EDAD-Edad-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>20,44</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20,45</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19,93</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>20,69</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>20,24</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>19,93</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>20,45</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>20,38</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20,4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19,98</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>20,43</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>20,34</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>19,98</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>20,4</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>20,41</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20,42</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19,95</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>20,57</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>20,28</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>19,95</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>20,42</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>19,95; 20,96</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20,03; 20,91</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19,6; 20,25</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>20,44; 20,94</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>19,74; 20,78</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>19,6; 20,25</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>20,03; 20,91</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>19,94; 20,82</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19,95; 20,79</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19,68; 20,3</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>20,18; 20,7</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>19,88; 20,79</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>19,68; 20,3</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>19,95; 20,79</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>20,09; 20,71</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20,1; 20,73</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19,74; 20,18</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>20,39; 20,75</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>19,94; 20,61</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>19,74; 20,18</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>20,1; 20,73</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>29,46</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>29,61</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>29,71</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>29,29</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>29,42</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>29,71</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>29,66</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>29,53</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>29,51</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29,54</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>29,56</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>29,57</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>29,61</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>29,54</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>30,57</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>29,51</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>29,53</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>29,41</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>30,08</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>29,61</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>29,57</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>29,03; 29,93</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29,24; 29,99</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>29,37; 30,01</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>28,93; 29,62</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>28,97; 29,92</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>29,37; 30,01</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>29,24; 29,99</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>29,32; 30,06</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29,18; 29,92</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29,16; 29,9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>29,23; 29,89</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>29,46; 32,23</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>29,16; 29,9</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>29,18; 29,92</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>29,26; 29,85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>29,32; 29,86</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>29,37; 29,87</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>29,19; 29,64</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>29,41; 31,45</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>29,37; 29,87</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>29,32; 29,86</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>39,75</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>39,59</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39,79</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>40,03</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>39,8</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>39,79</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>39,59</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>39,65</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>39,42</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39,86</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>40,05</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>39,64</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>39,86</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>39,42</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>39,7</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>39,5</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>39,83</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>40,04</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>39,71</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>39,83</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>39,5</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>39,41; 40,08</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>39,2; 39,95</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>39,5; 40,09</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>39,79; 40,29</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>39,44; 40,16</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>39,5; 40,09</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>39,2; 39,95</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>39,39; 39,89</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>39,03; 39,8</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>39,59; 40,15</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>39,82; 40,28</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>39,37; 39,91</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>39,59; 40,15</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>39,03; 39,8</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>39,49; 39,92</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>39,24; 39,74</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>39,59; 40,05</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>39,87; 40,22</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>39,49; 39,96</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>39,59; 40,05</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>39,24; 39,74</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>49,23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>49,3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49,1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>49,66</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>49,93</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>49,1</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>49,3</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>49,21</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49,24</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49,43</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>49,75</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>49,25</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>49,43</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>49,24</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>49,22</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>49,27</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>49,26</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>49,71</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>49,66</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>49,26</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>49,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>48,93; 49,5</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>48,94; 49,67</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>48,86; 49,35</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>49,47; 49,88</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>49,17; 50,58</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>48,86; 49,35</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>48,94; 49,67</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>49,0; 49,42</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>48,85; 49,62</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>49,16; 49,68</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>49,53; 49,97</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>49,05; 49,49</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>49,16; 49,68</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>48,85; 49,62</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>49,03; 49,39</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>48,98; 49,56</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>49,07; 49,44</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>49,55; 49,86</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>49,17; 50,34</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>49,07; 49,44</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>48,98; 49,56</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>59,16</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>59,25</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>59,14</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>59,57</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>59,21</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>59,14</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>59,25</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>59,0</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>59,37</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>59,43</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>59,51</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>58,98</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>59,43</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>59,37</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>59,08</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>59,31</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>59,29</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>59,54</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>59,1</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>59,29</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>59,31</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>58,86; 59,48</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>58,79; 59,67</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>58,87; 59,45</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>59,35; 59,79</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>58,92; 59,54</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>58,87; 59,45</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>58,79; 59,67</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>58,77; 59,23</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>58,96; 59,76</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>59,16; 59,71</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>59,3; 59,71</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>58,75; 59,23</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>59,16; 59,71</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>58,96; 59,76</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>58,9; 59,27</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>59,01; 59,6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>59,09; 59,48</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>59,38; 59,7</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>58,92; 59,29</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>59,09; 59,48</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>59,01; 59,6</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>69,34</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>69,65</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>69,47</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>69,18</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>69,21</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>69,36</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>69,47</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>69,65</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>69,28</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>69,48</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>68,21</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>69,28</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>69,36</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>69,27</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>69,48</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>69,38</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>69,34</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>68,57</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>69,38</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>69,48</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>69,03; 69,69</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>69,09; 70,18</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>69,21; 69,74</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>68,91; 69,43</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>69,03; 69,68</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>69,21; 69,74</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>69,09; 70,18</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>68,93; 69,46</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>68,83; 69,81</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>69,0; 69,56</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>69,24; 69,72</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>67,32; 69,3</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>69,0; 69,56</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>68,83; 69,81</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>69,06; 69,46</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>69,09; 69,79</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>69,2; 69,57</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>69,19; 69,5</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>67,62; 69,33</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>69,2; 69,57</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>69,09; 69,79</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>81,0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>81,45</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>81,45</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>81,07</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>81,05</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>81,45</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>81,45</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>81,92</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>83,16</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>82,17</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>82,9</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>81,85</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>82,17</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>83,16</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>81,56</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>82,52</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>81,88</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>82,16</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>81,53</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>81,88</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>82,52</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>80,37; 81,64</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>80,62; 82,39</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>81,04; 81,9</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>80,61; 81,51</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>80,41; 81,72</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>81,04; 81,9</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>80,62; 82,39</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>81,38; 82,54</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>82,33; 84,17</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>81,7; 82,68</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>82,45; 83,32</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>81,31; 82,46</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>81,7; 82,68</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>82,33; 84,17</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>81,13; 82,05</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>81,91; 83,23</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>81,53; 82,26</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>81,87; 82,51</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>81,12; 82,0</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>81,53; 82,26</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>81,91; 83,23</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>48,24</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>47,75</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>49,14</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>51,51</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>48,53</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>49,14</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>47,75</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>50,09</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>50,87</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>50,47</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>54,41</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>51,51</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>50,47</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>50,87</t>
-        </is>
-      </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
+          <t>49,19</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>49,4</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>49,83</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
           <t>53,03</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>50,07</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>49,83</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>49,4</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>47,22; 49,14</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>46,72; 48,77</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>48,45; 49,82</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>50,88; 52,12</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>47,46; 49,6</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>48,45; 49,82</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>46,72; 48,77</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>49,21; 50,86</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>49,81; 52,16</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>49,7; 51,25</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>53,81; 55,07</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>49,47; 55,81</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>49,7; 51,25</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>49,81; 52,16</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
+          <t>48,45; 49,78</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>48,62; 50,12</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>49,32; 50,3</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>52,59; 53,46</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>48,88; 52,5</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>49,32; 50,3</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>48,62; 50,12</t>
         </is>
       </c>
     </row>
